--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_15.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_15.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_1</t>
+          <t>model_1_15_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995192550124524</v>
+        <v>0.9497980849387289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828151550824208</v>
+        <v>0.7402240608591215</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8157417687311646</v>
+        <v>0.7470581247584988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998078102986795</v>
+        <v>0.9475349318134286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002001113845035084</v>
+        <v>0.1759833444772213</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14915137092787</v>
+        <v>1.737122901193267</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6590810093425167</v>
+        <v>0.9047584213262441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001128211915555217</v>
+        <v>0.1487081772722839</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1387319685717103</v>
+        <v>1.487067300276711</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04473381098269053</v>
+        <v>0.4195036882760643</v>
       </c>
       <c r="L2" t="n">
-        <v>1.030767679203045</v>
+        <v>0.9316399454484818</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0454383237882626</v>
+        <v>0.4261104520165728</v>
       </c>
       <c r="N2" t="n">
-        <v>142.4281026618569</v>
+        <v>37.47473184414837</v>
       </c>
       <c r="O2" t="n">
-        <v>283.7632752050733</v>
+        <v>74.43931543237419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_3</t>
+          <t>model_1_15_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999555536514151</v>
+        <v>0.9495582350942972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8279239936896201</v>
+        <v>0.7396974489390362</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8160426436866425</v>
+        <v>0.742116106668147</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998167901494179</v>
+        <v>0.9520274952174842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001850091125614141</v>
+        <v>0.1768241406449355</v>
       </c>
       <c r="G3" t="n">
-        <v>1.150673046534664</v>
+        <v>1.740644357527702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6580047970725043</v>
+        <v>0.9224357334807588</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001075497464502351</v>
+        <v>0.135974353831485</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1359924622183609</v>
+        <v>1.47991477603533</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04301268563591608</v>
+        <v>0.4205046261873174</v>
       </c>
       <c r="L3" t="n">
-        <v>1.028445663094338</v>
+        <v>0.9313133414050003</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0436900924377706</v>
+        <v>0.4271271536993573</v>
       </c>
       <c r="N3" t="n">
-        <v>142.5850407680325</v>
+        <v>37.46519919198051</v>
       </c>
       <c r="O3" t="n">
-        <v>283.9202133112489</v>
+        <v>74.42978278020634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_2</t>
+          <t>model_1_15_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995493949001936</v>
+        <v>0.9495365159785654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8278831380247058</v>
+        <v>0.7396314054280717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8160511718938471</v>
+        <v>0.7419445910065452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998252854462117</v>
+        <v>0.9521986159075632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001875655757673459</v>
+        <v>0.1769002772349622</v>
       </c>
       <c r="G4" t="n">
-        <v>1.150946248554069</v>
+        <v>1.741085990789625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6579742921698272</v>
+        <v>0.9230492350572592</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001025627492266333</v>
+        <v>0.1354893254727164</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1370497827049591</v>
+        <v>1.479585081300257</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04330884156466736</v>
+        <v>0.4205951464710003</v>
       </c>
       <c r="L4" t="n">
-        <v>1.028838726387612</v>
+        <v>0.9312837664388975</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04399091252635239</v>
+        <v>0.4272190995870212</v>
       </c>
       <c r="N4" t="n">
-        <v>142.5575938865556</v>
+        <v>37.46433822126598</v>
       </c>
       <c r="O4" t="n">
-        <v>283.892766429772</v>
+        <v>74.4289218094918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_0</t>
+          <t>model_1_15_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995137516898931</v>
+        <v>0.9496940934693192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8278631794412206</v>
+        <v>0.739466444703333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8162160117588605</v>
+        <v>0.7465314913023655</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998404624027259</v>
+        <v>0.9486329860848066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002024021572109899</v>
+        <v>0.1763478876736607</v>
       </c>
       <c r="G5" t="n">
-        <v>1.151079711693736</v>
+        <v>1.742189083915527</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6573846695306389</v>
+        <v>0.9066421586628702</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009365341482235125</v>
+        <v>0.1455958273814575</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1339462688426294</v>
+        <v>1.484832641939614</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04498912726548382</v>
+        <v>0.4199379569337127</v>
       </c>
       <c r="L5" t="n">
-        <v>1.031119891846842</v>
+        <v>0.9314983400433283</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04569766104728724</v>
+        <v>0.4265515599714698</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4053377389133</v>
+        <v>37.47059320081212</v>
       </c>
       <c r="O5" t="n">
-        <v>283.7405102821297</v>
+        <v>74.43517678903794</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_4</t>
+          <t>model_1_15_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995983710236301</v>
+        <v>0.9496465141817438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8277480565539319</v>
+        <v>0.7391758278154078</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8160518765127766</v>
+        <v>0.7462484455682841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997986037363366</v>
+        <v>0.9491055430850606</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001671791336361044</v>
+        <v>0.1765146773697338</v>
       </c>
       <c r="G6" t="n">
-        <v>1.151849538971127</v>
+        <v>1.74413244038325</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6579717717887728</v>
+        <v>0.9076545968417449</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001182257232578615</v>
+        <v>0.1442564011194898</v>
       </c>
       <c r="J6" t="n">
-        <v>0.125097936443239</v>
+        <v>1.483958794713595</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04088754500286174</v>
+        <v>0.4201364984974929</v>
       </c>
       <c r="L6" t="n">
-        <v>1.025704254487671</v>
+        <v>0.9314335512262044</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04153148296410691</v>
+        <v>0.4267532283664108</v>
       </c>
       <c r="N6" t="n">
-        <v>142.7877191418696</v>
+        <v>37.46870249632808</v>
       </c>
       <c r="O6" t="n">
-        <v>284.122891685086</v>
+        <v>74.4332860845539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_5</t>
+          <t>model_1_15_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996053424273744</v>
+        <v>0.9496056050649494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8277144876902224</v>
+        <v>0.7389296599242464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8160080070648493</v>
+        <v>0.7460848699845563</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998017634402907</v>
+        <v>0.9494337954096059</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001642772682161177</v>
+        <v>0.1766580847115514</v>
       </c>
       <c r="G7" t="n">
-        <v>1.152074014117323</v>
+        <v>1.745778566204945</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6581286902603117</v>
+        <v>0.9082396972200821</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001163708810752596</v>
+        <v>0.1433259952979452</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1239175415981572</v>
+        <v>1.483303576333196</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04053113225856363</v>
+        <v>0.4203071314069646</v>
       </c>
       <c r="L7" t="n">
-        <v>1.025258084648037</v>
+        <v>0.9313778451948247</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04116945707536813</v>
+        <v>0.4269265485736363</v>
       </c>
       <c r="N7" t="n">
-        <v>142.8227396096965</v>
+        <v>37.46707827877682</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1579121529129</v>
+        <v>74.43166186700265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_6</t>
+          <t>model_1_15_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9996381776164851</v>
+        <v>0.9493019745282167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8270800656956231</v>
+        <v>0.7387797184908618</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8169775110887323</v>
+        <v>0.7407201715600177</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998297831737754</v>
+        <v>0.9536568798704815</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001506095330892476</v>
+        <v>0.1777224647710455</v>
       </c>
       <c r="G8" t="n">
-        <v>1.156316396916453</v>
+        <v>1.746781225260405</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6546608305819558</v>
+        <v>0.9274289124215693</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000999224465489637</v>
+        <v>0.131355989075701</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1201448222230095</v>
+        <v>1.476432679957249</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03880844406688416</v>
+        <v>0.4215714230958326</v>
       </c>
       <c r="L8" t="n">
-        <v>1.023156632544953</v>
+        <v>0.9309643908469334</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03941963826672613</v>
+        <v>0.428210751592776</v>
       </c>
       <c r="N8" t="n">
-        <v>142.9964697017649</v>
+        <v>37.45506426433219</v>
       </c>
       <c r="O8" t="n">
-        <v>284.3316422449813</v>
+        <v>74.41964785255801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_7</t>
+          <t>model_1_15_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996521666846973</v>
+        <v>0.9492661062295075</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8265390844913156</v>
+        <v>0.7386521362267927</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8171598661331727</v>
+        <v>0.7405664931619003</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998510124775918</v>
+        <v>0.9538463571435351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001447865460995651</v>
+        <v>0.1778482014717241</v>
       </c>
       <c r="G9" t="n">
-        <v>1.159933940720646</v>
+        <v>1.747634368447697</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6540085571615453</v>
+        <v>0.9279786111408501</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008746020046599692</v>
+        <v>0.1308189304024881</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1178819255813199</v>
+        <v>1.475996025416652</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0380508273365462</v>
+        <v>0.4217205253147209</v>
       </c>
       <c r="L9" t="n">
-        <v>1.022261332179376</v>
+        <v>0.9309155489082654</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03865008983022422</v>
+        <v>0.4283622020225643</v>
       </c>
       <c r="N9" t="n">
-        <v>143.0753298060248</v>
+        <v>37.45364978650422</v>
       </c>
       <c r="O9" t="n">
-        <v>284.4105023492412</v>
+        <v>74.41823337473004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_9</t>
+          <t>model_1_15_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996244594205522</v>
+        <v>0.9494262536097131</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8263959233494281</v>
+        <v>0.7381185660216144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8191734649959942</v>
+        <v>0.7446517472469631</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995847195235111</v>
+        <v>0.9512022280064183</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001563197687695584</v>
+        <v>0.1772868031357551</v>
       </c>
       <c r="G10" t="n">
-        <v>1.160891259935644</v>
+        <v>1.751202354866589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.646806030784403</v>
+        <v>0.9133658941552221</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002437822519380185</v>
+        <v>0.1383135099016492</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09862506096176805</v>
+        <v>1.479798805022876</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03953729489602929</v>
+        <v>0.4210543945094923</v>
       </c>
       <c r="L10" t="n">
-        <v>1.024034597084658</v>
+        <v>0.9311336219366306</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04015996776784676</v>
+        <v>0.4276855803230398</v>
       </c>
       <c r="N10" t="n">
-        <v>142.922043511778</v>
+        <v>37.4599730021413</v>
       </c>
       <c r="O10" t="n">
-        <v>284.2572160549944</v>
+        <v>74.42455659036712</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_8</t>
+          <t>model_1_15_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996392307528369</v>
+        <v>0.9473566969571147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8261389992365435</v>
+        <v>0.7345405982539894</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8187345692685727</v>
+        <v>0.7328420691219093</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996630563142024</v>
+        <v>0.960511806171531</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001501711622712842</v>
+        <v>0.1845416558812104</v>
       </c>
       <c r="G11" t="n">
-        <v>1.16260931266153</v>
+        <v>1.775128241803724</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6483759353527533</v>
+        <v>0.955608428044058</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001977961766816892</v>
+        <v>0.111926230746981</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09777886097776284</v>
+        <v>1.471873538667834</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03875192411626605</v>
+        <v>0.4295831187106988</v>
       </c>
       <c r="L11" t="n">
-        <v>1.023089231818439</v>
+        <v>0.9283155022394753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.039362228183385</v>
+        <v>0.4363486234048189</v>
       </c>
       <c r="N11" t="n">
-        <v>143.0022994792089</v>
+        <v>37.37976012770289</v>
       </c>
       <c r="O11" t="n">
-        <v>284.3374720224252</v>
+        <v>74.34434371592872</v>
       </c>
     </row>
   </sheetData>
